--- a/Website stats.xlsx
+++ b/Website stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudkr\OneDrive\Desktop\neocities site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE98551-D22D-4F42-A480-86A4C9ABC239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAC1CBD-E19D-43A6-8743-2483FA97C9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{C7D9D53F-18CB-4893-B8BD-1D271DB13294}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{C7D9D53F-18CB-4893-B8BD-1D271DB13294}"/>
   </bookViews>
   <sheets>
     <sheet name="avg bandwidth" sheetId="1" r:id="rId1"/>
@@ -686,36 +686,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -726,6 +697,1864 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weekly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> avg bandwidth</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7692038495188095E-2"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.90930796150481186"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'avg bandwidth'!$E$52:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5960</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-31AD-4635-9F3E-C86B4CA72479}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="216052639"/>
+        <c:axId val="216055519"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="216052639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216055519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216055519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216052639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weekly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> avg views</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.7692038495188095E-2"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.90930796150481186"/>
+          <c:h val="0.72125801983085447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'avg views'!$E$52:$E$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9448-42F5-A29A-B8DF54476B6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="216052639"/>
+        <c:axId val="216055519"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="216052639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216055519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="216055519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216052639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57927B1-A0FF-4189-95F3-783573695383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DCD0EE5-69CD-A13B-8FEB-6089C6DEB193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1047,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD5BBD8-2391-40F5-8186-8F727C1948B8}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M72" sqref="M72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3386,59 +5215,59 @@
         <v>23</v>
       </c>
       <c r="K41">
-        <f>SUM(K10:K39)</f>
+        <f t="shared" ref="K41:X41" si="16">SUM(K10:K39)</f>
         <v>1716</v>
       </c>
       <c r="L41">
-        <f>SUM(L10:L39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M41">
-        <f>SUM(M10:M39)</f>
+        <f t="shared" si="16"/>
         <v>2450</v>
       </c>
       <c r="N41">
-        <f>SUM(N10:N39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O41">
-        <f>SUM(O10:O39)</f>
+        <f t="shared" si="16"/>
         <v>954</v>
       </c>
       <c r="P41">
-        <f>SUM(P10:P39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q41">
-        <f>SUM(Q10:Q39)</f>
+        <f t="shared" si="16"/>
         <v>4848</v>
       </c>
       <c r="R41">
-        <f>SUM(R10:R39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S41">
-        <f>SUM(S10:S39)</f>
+        <f t="shared" si="16"/>
         <v>2892</v>
       </c>
       <c r="T41">
-        <f>SUM(T10:T39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U41">
-        <f>SUM(U10:U39)</f>
+        <f t="shared" si="16"/>
         <v>5960</v>
       </c>
       <c r="V41">
-        <f>SUM(V10:V39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W41">
-        <f>SUM(W10:W39)</f>
+        <f t="shared" si="16"/>
         <v>1175</v>
       </c>
       <c r="X41">
-        <f>SUM(X10:X39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -3459,47 +5288,47 @@
         <v>2450</v>
       </c>
       <c r="N42">
-        <f t="shared" ref="L42:X42" si="16">N41/O41</f>
+        <f t="shared" ref="N42:X42" si="17">N41/O41</f>
         <v>1.0482180293501049E-3</v>
       </c>
       <c r="O42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>954</v>
       </c>
       <c r="P42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2.0627062706270627E-4</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4848</v>
       </c>
       <c r="R42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3.4578146611341634E-4</v>
       </c>
       <c r="S42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2892</v>
       </c>
       <c r="T42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.6778523489932885E-4</v>
       </c>
       <c r="U42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5960</v>
       </c>
       <c r="V42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.5106382978723403E-4</v>
       </c>
       <c r="W42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1175</v>
       </c>
       <c r="X42" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3616,6 +5445,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3623,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA14C10-EBE7-4D11-9020-10704F0271E0}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,59 +7792,59 @@
         <v>23</v>
       </c>
       <c r="K41">
-        <f>SUM(K10:K39)</f>
+        <f t="shared" ref="K41:X41" si="16">SUM(K10:K39)</f>
         <v>2</v>
       </c>
       <c r="L41">
-        <f>SUM(L10:L39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M41">
-        <f>SUM(M10:M39)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="N41">
-        <f>SUM(N10:N39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O41">
-        <f>SUM(O10:O39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="P41">
-        <f>SUM(P10:P39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q41">
-        <f>SUM(Q10:Q39)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="R41">
-        <f>SUM(R10:R39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S41">
-        <f>SUM(S10:S39)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="T41">
-        <f>SUM(T10:T39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U41">
-        <f>SUM(U10:U39)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="V41">
-        <f>SUM(V10:V39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="W41">
-        <f>SUM(W10:W39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="X41">
-        <f>SUM(X10:X39)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -6035,47 +7865,47 @@
         <v>3</v>
       </c>
       <c r="N42">
-        <f t="shared" ref="N42:X42" si="16">N41/O41</f>
+        <f t="shared" ref="N42:X42" si="17">N41/O41</f>
         <v>1</v>
       </c>
       <c r="O42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="P42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.2</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="R42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="S42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="T42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="U42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="V42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="W42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X42" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6192,5 +8022,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Website stats.xlsx
+++ b/Website stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudkr\OneDrive\Desktop\neocities site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAC1CBD-E19D-43A6-8743-2483FA97C9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C0BA7D-9AC2-4F60-8C8A-617D62148FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{C7D9D53F-18CB-4893-B8BD-1D271DB13294}"/>
   </bookViews>
@@ -2876,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD5BBD8-2391-40F5-8186-8F727C1948B8}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M72" sqref="M72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA14C10-EBE7-4D11-9020-10704F0271E0}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
